--- a/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
+++ b/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Firmware Sistema\Sistema Pylon Rev2 18-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4973D-77DA-4DD9-A6FD-1DA8FD7BFCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18203569-DAB3-4818-9F5F-23B6DEB226F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74CC8E9D-622E-4FE5-A796-FCE34E7CBF94}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
+++ b/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Firmware Sistema\Sistema Pylon Rev2 18-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18203569-DAB3-4818-9F5F-23B6DEB226F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEF755-4D78-43B1-82C7-DBD58CE2D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74CC8E9D-622E-4FE5-A796-FCE34E7CBF94}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Colore</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Rx</t>
+  </si>
+  <si>
+    <t>Centrale</t>
+  </si>
+  <si>
+    <t>RX( COMPUTER)</t>
+  </si>
+  <si>
+    <t>TX(TABELLONE)</t>
+  </si>
+  <si>
+    <t>RX (TABELLONE)</t>
+  </si>
+  <si>
+    <t>Rimpallo</t>
+  </si>
+  <si>
+    <t>TX (SEMAFORO)</t>
   </si>
 </sst>
 </file>
@@ -140,13 +158,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -162,7 +180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5882640" y="266700"/>
+          <a:off x="5882640" y="1363980"/>
           <a:ext cx="3268980" cy="1165860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0D6C55-748B-446B-BA28-137D6566D118}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,36 +572,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -591,47 +591,32 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -642,13 +627,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -658,8 +643,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -670,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -681,16 +678,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -701,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -715,13 +712,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -732,35 +729,125 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
     </row>

--- a/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
+++ b/Firmware Sistema/Sistema Pylon Rev2 18-07/Tavola Dei Canali Rev2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Firmware Sistema\Sistema Pylon Rev2 18-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEF755-4D78-43B1-82C7-DBD58CE2D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888501A9-C173-438D-9A07-8B2C0C80923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74CC8E9D-622E-4FE5-A796-FCE34E7CBF94}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
